--- a/Code/Results/Cases/Case_0_125/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_125/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>8.10111368379248</v>
+        <v>10.47960307264752</v>
       </c>
       <c r="D2">
-        <v>2.245811244287513</v>
+        <v>3.83824738459685</v>
       </c>
       <c r="E2">
-        <v>10.10043975315593</v>
+        <v>12.76766712996633</v>
       </c>
       <c r="F2">
-        <v>26.00516188310493</v>
+        <v>24.38713471282597</v>
       </c>
       <c r="G2">
-        <v>38.17289520709106</v>
+        <v>30.25043463407877</v>
       </c>
       <c r="H2">
-        <v>10.56960350018304</v>
+        <v>13.72114037120475</v>
       </c>
       <c r="I2">
-        <v>20.79219677404595</v>
+        <v>22.53310231119853</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.293414370763763</v>
+        <v>9.329841130967061</v>
       </c>
       <c r="O2">
-        <v>20.18515636868942</v>
+        <v>21.2833099749091</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -456,34 +456,34 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>7.785127429569165</v>
+        <v>10.45037202107952</v>
       </c>
       <c r="D3">
-        <v>2.244637996577879</v>
+        <v>3.835930178954499</v>
       </c>
       <c r="E3">
-        <v>9.684023366103723</v>
+        <v>12.72644113586963</v>
       </c>
       <c r="F3">
-        <v>24.4781416568346</v>
+        <v>24.05226021884549</v>
       </c>
       <c r="G3">
-        <v>35.7028937406288</v>
+        <v>29.53861713261317</v>
       </c>
       <c r="H3">
-        <v>10.15860329878665</v>
+        <v>13.68306165960474</v>
       </c>
       <c r="I3">
-        <v>19.71867318833955</v>
+        <v>22.35737378144347</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.129783097305803</v>
+        <v>9.328454093328642</v>
       </c>
       <c r="O3">
-        <v>19.1123007772173</v>
+        <v>21.09573507956767</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -491,34 +491,34 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>7.59014195325996</v>
+        <v>10.43465040749228</v>
       </c>
       <c r="D4">
-        <v>2.243647185058599</v>
+        <v>3.834424825415421</v>
       </c>
       <c r="E4">
-        <v>9.426644215784998</v>
+        <v>12.70398083294631</v>
       </c>
       <c r="F4">
-        <v>23.50981335745256</v>
+        <v>23.85142729026402</v>
       </c>
       <c r="G4">
-        <v>34.12411338352226</v>
+        <v>29.10242667723949</v>
       </c>
       <c r="H4">
-        <v>9.905255642808626</v>
+        <v>13.66258951676806</v>
       </c>
       <c r="I4">
-        <v>19.04473516603602</v>
+        <v>22.25470344097577</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.031329006355113</v>
+        <v>9.32929501348675</v>
       </c>
       <c r="O4">
-        <v>18.43736112132935</v>
+        <v>20.98539993083244</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -526,34 +526,34 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>7.51054962367369</v>
+        <v>10.42880791258606</v>
       </c>
       <c r="D5">
-        <v>2.243179385190378</v>
+        <v>3.833790664373361</v>
       </c>
       <c r="E5">
-        <v>9.321475596011659</v>
+        <v>12.69555162918325</v>
       </c>
       <c r="F5">
-        <v>23.1078458176002</v>
+        <v>23.77089341594906</v>
       </c>
       <c r="G5">
-        <v>33.46543063599555</v>
+        <v>28.92518720548114</v>
       </c>
       <c r="H5">
-        <v>9.801902727079387</v>
+        <v>13.65498394736394</v>
       </c>
       <c r="I5">
-        <v>18.76671526530284</v>
+        <v>22.21421899936945</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>5.991751545304846</v>
+        <v>9.330063813335169</v>
       </c>
       <c r="O5">
-        <v>18.15856240202556</v>
+        <v>20.94169908310523</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -561,34 +561,34 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>7.497328686126014</v>
+        <v>10.42787196222097</v>
       </c>
       <c r="D6">
-        <v>2.243097952217424</v>
+        <v>3.833684112561664</v>
       </c>
       <c r="E6">
-        <v>9.303999721703498</v>
+        <v>12.69419583309895</v>
       </c>
       <c r="F6">
-        <v>23.04066688932326</v>
+        <v>23.75760278919316</v>
       </c>
       <c r="G6">
-        <v>33.35514349103723</v>
+        <v>28.89579634248949</v>
       </c>
       <c r="H6">
-        <v>9.78473860870116</v>
+        <v>13.6537657119091</v>
       </c>
       <c r="I6">
-        <v>18.72035683988407</v>
+        <v>22.20757951812481</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>5.985213630874014</v>
+        <v>9.330217219497595</v>
       </c>
       <c r="O6">
-        <v>18.11205183641879</v>
+        <v>20.93452006577358</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -596,34 +596,34 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>7.589068933805805</v>
+        <v>10.43456932385896</v>
       </c>
       <c r="D7">
-        <v>2.243641130319683</v>
+        <v>3.83441635672833</v>
       </c>
       <c r="E7">
-        <v>9.425226826822103</v>
+        <v>12.70386421649433</v>
       </c>
       <c r="F7">
-        <v>23.50442156237957</v>
+        <v>23.85033575306452</v>
       </c>
       <c r="G7">
-        <v>34.11529166427958</v>
+        <v>29.10003389911549</v>
       </c>
       <c r="H7">
-        <v>9.903862049020594</v>
+        <v>13.66248395444741</v>
       </c>
       <c r="I7">
-        <v>19.0409989092553</v>
+        <v>22.25415191823619</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.030793002204354</v>
+        <v>9.32930365592838</v>
       </c>
       <c r="O7">
-        <v>18.43361588164321</v>
+        <v>20.98480539963697</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -631,34 +631,34 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>7.992424752204186</v>
+        <v>10.46906490508412</v>
       </c>
       <c r="D8">
-        <v>2.245465282365579</v>
+        <v>3.837465579923371</v>
       </c>
       <c r="E8">
-        <v>9.957291961669643</v>
+        <v>12.75286433203479</v>
       </c>
       <c r="F8">
-        <v>25.48521349833845</v>
+        <v>24.27074128271625</v>
       </c>
       <c r="G8">
-        <v>37.33430335804179</v>
+        <v>30.00499325919384</v>
       </c>
       <c r="H8">
-        <v>10.42817453050244</v>
+        <v>13.70741082898344</v>
       </c>
       <c r="I8">
-        <v>20.42529708102656</v>
+        <v>22.47145089682965</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.236597384327702</v>
+        <v>9.329011947853191</v>
       </c>
       <c r="O8">
-        <v>19.81877033987972</v>
+        <v>21.21765833673252</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -666,34 +666,34 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>8.771533886645482</v>
+        <v>10.55415950457158</v>
       </c>
       <c r="D9">
-        <v>2.246708306306986</v>
+        <v>3.842787855798174</v>
       </c>
       <c r="E9">
-        <v>10.98185106375548</v>
+        <v>12.87127721233442</v>
       </c>
       <c r="F9">
-        <v>29.11415208108972</v>
+        <v>25.12838031552726</v>
       </c>
       <c r="G9">
-        <v>43.17569024655516</v>
+        <v>31.77406878043188</v>
       </c>
       <c r="H9">
-        <v>11.44323869183572</v>
+        <v>13.81830698560665</v>
       </c>
       <c r="I9">
-        <v>23.01098300238599</v>
+        <v>22.937175097115</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.654661833553417</v>
+        <v>9.341840360411121</v>
       </c>
       <c r="O9">
-        <v>22.39565093741648</v>
+        <v>21.71054551788778</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -701,34 +701,34 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>9.332050753575178</v>
+        <v>10.62699022019643</v>
       </c>
       <c r="D10">
-        <v>2.245921257900022</v>
+        <v>3.846294917704664</v>
       </c>
       <c r="E10">
-        <v>11.71731410985075</v>
+        <v>12.97141709788208</v>
       </c>
       <c r="F10">
-        <v>31.70628742490292</v>
+        <v>25.77235484085015</v>
       </c>
       <c r="G10">
-        <v>47.21694472667147</v>
+        <v>33.05458916311124</v>
       </c>
       <c r="H10">
-        <v>12.17524025347637</v>
+        <v>13.91325508847762</v>
       </c>
       <c r="I10">
-        <v>24.82070756893636</v>
+        <v>23.30081928520842</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>6.968827106517524</v>
+        <v>9.359385048239247</v>
       </c>
       <c r="O10">
-        <v>24.20829094792113</v>
+        <v>22.09180496302789</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -736,34 +736,34 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>9.583750495051305</v>
+        <v>10.66228121176307</v>
       </c>
       <c r="D11">
-        <v>2.245127872899589</v>
+        <v>3.847802294688922</v>
       </c>
       <c r="E11">
-        <v>12.04730067289442</v>
+        <v>13.01971159451615</v>
       </c>
       <c r="F11">
-        <v>32.8901698365072</v>
+        <v>26.06697412088439</v>
       </c>
       <c r="G11">
-        <v>48.98377226916914</v>
+        <v>33.6298858845403</v>
       </c>
       <c r="H11">
-        <v>12.50440009757286</v>
+        <v>13.9592700100001</v>
       </c>
       <c r="I11">
-        <v>25.62311188420284</v>
+        <v>23.47031043443012</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>7.112967175583231</v>
+        <v>9.369114970458863</v>
       </c>
       <c r="O11">
-        <v>25.12604195287346</v>
+        <v>22.26874091314613</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -771,34 +771,34 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>9.678549126236254</v>
+        <v>10.67594794756043</v>
       </c>
       <c r="D12">
-        <v>2.244758864128508</v>
+        <v>3.848360398001666</v>
       </c>
       <c r="E12">
-        <v>12.17155383809192</v>
+        <v>13.03838266102604</v>
       </c>
       <c r="F12">
-        <v>33.33160037361313</v>
+        <v>26.17866826080345</v>
       </c>
       <c r="G12">
-        <v>49.6427168751822</v>
+        <v>33.84646349813307</v>
       </c>
       <c r="H12">
-        <v>12.62844566247431</v>
+        <v>13.97709061067314</v>
       </c>
       <c r="I12">
-        <v>25.95907515472588</v>
+        <v>23.53502473213244</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>7.167706373004662</v>
+        <v>9.373049282135547</v>
       </c>
       <c r="O12">
-        <v>25.46811307511249</v>
+        <v>22.33618803746316</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -806,34 +806,34 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>9.658155968037315</v>
+        <v>10.67299123339563</v>
       </c>
       <c r="D13">
-        <v>2.244841486250293</v>
+        <v>3.848240766474034</v>
       </c>
       <c r="E13">
-        <v>12.14482563088346</v>
+        <v>13.03434466247179</v>
       </c>
       <c r="F13">
-        <v>33.23683424559349</v>
+        <v>26.15460898611309</v>
       </c>
       <c r="G13">
-        <v>49.50124787243021</v>
+        <v>33.79987991998833</v>
       </c>
       <c r="H13">
-        <v>12.60175751164117</v>
+        <v>13.97323519235058</v>
       </c>
       <c r="I13">
-        <v>25.8847401902141</v>
+        <v>23.52106455949447</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>7.155910596970186</v>
+        <v>9.372190876534312</v>
       </c>
       <c r="O13">
-        <v>25.39468277392157</v>
+        <v>22.3216432121414</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -841,34 +841,34 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>9.591560145376441</v>
+        <v>10.663399560055</v>
       </c>
       <c r="D14">
-        <v>2.245098924349131</v>
+        <v>3.847848465165526</v>
       </c>
       <c r="E14">
-        <v>12.0575374008502</v>
+        <v>13.02124006446527</v>
       </c>
       <c r="F14">
-        <v>32.92662371247231</v>
+        <v>26.07616132903326</v>
       </c>
       <c r="G14">
-        <v>49.03818556232728</v>
+        <v>33.64773069960466</v>
       </c>
       <c r="H14">
-        <v>12.5146176455622</v>
+        <v>13.96072825039585</v>
       </c>
       <c r="I14">
-        <v>25.64792020709453</v>
+        <v>23.47562417072504</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>7.117467557519045</v>
+        <v>9.369433652557957</v>
       </c>
       <c r="O14">
-        <v>25.15429306854291</v>
+        <v>22.27428123662491</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -876,34 +876,34 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>9.550700228556316</v>
+        <v>10.65756357761039</v>
       </c>
       <c r="D15">
-        <v>2.245247498057279</v>
+        <v>3.847606512817661</v>
       </c>
       <c r="E15">
-        <v>12.00397786809492</v>
+        <v>13.01326265647562</v>
       </c>
       <c r="F15">
-        <v>32.73571874512677</v>
+        <v>26.02812328403852</v>
       </c>
       <c r="G15">
-        <v>48.75323539175464</v>
+        <v>33.55436215727691</v>
       </c>
       <c r="H15">
-        <v>12.46116265700452</v>
+        <v>13.95311861412588</v>
       </c>
       <c r="I15">
-        <v>25.51806677768496</v>
+        <v>23.44785826721343</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>7.093939982456719</v>
+        <v>9.367777251676774</v>
       </c>
       <c r="O15">
-        <v>25.00633998410036</v>
+        <v>22.24532692856566</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -911,34 +911,34 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>9.315531588236531</v>
+        <v>10.62472667925059</v>
       </c>
       <c r="D16">
-        <v>2.245963846794856</v>
+        <v>3.846194631687089</v>
       </c>
       <c r="E16">
-        <v>11.69565211919148</v>
+        <v>12.96831515068649</v>
       </c>
       <c r="F16">
-        <v>31.62794824102301</v>
+        <v>25.75312477416255</v>
       </c>
       <c r="G16">
-        <v>47.10005225342409</v>
+        <v>33.0168262926481</v>
       </c>
       <c r="H16">
-        <v>12.15364716998925</v>
+        <v>13.9103038504742</v>
       </c>
       <c r="I16">
-        <v>24.76784330173226</v>
+        <v>23.28981995863522</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>6.959430047768868</v>
+        <v>9.35878422663583</v>
       </c>
       <c r="O16">
-        <v>24.14754281043232</v>
+        <v>22.0803072598365</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -946,34 +946,34 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>9.17038801971502</v>
+        <v>10.60513012757232</v>
       </c>
       <c r="D17">
-        <v>2.2462876885215</v>
+        <v>3.845305910785877</v>
       </c>
       <c r="E17">
-        <v>11.50529204130526</v>
+        <v>12.94143551839098</v>
       </c>
       <c r="F17">
-        <v>30.93598107561925</v>
+        <v>25.58476974013746</v>
       </c>
       <c r="G17">
-        <v>46.06765822297425</v>
+        <v>32.68504285504711</v>
       </c>
       <c r="H17">
-        <v>11.96397435185706</v>
+        <v>13.88475429673296</v>
       </c>
       <c r="I17">
-        <v>24.30221242708325</v>
+        <v>23.19387278324225</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6.877210455576381</v>
+        <v>9.353714075845884</v>
       </c>
       <c r="O17">
-        <v>23.67876614995928</v>
+        <v>21.97992825560868</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -981,34 +981,34 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>9.086598039027439</v>
+        <v>10.59406251079553</v>
       </c>
       <c r="D18">
-        <v>2.246433358497927</v>
+        <v>3.84478646184106</v>
       </c>
       <c r="E18">
-        <v>11.3953725770411</v>
+        <v>12.92623370685781</v>
       </c>
       <c r="F18">
-        <v>30.53339353948237</v>
+        <v>25.48810033995068</v>
       </c>
       <c r="G18">
-        <v>45.46710309626148</v>
+        <v>32.4935434718583</v>
       </c>
       <c r="H18">
-        <v>11.85452073624115</v>
+        <v>13.87032518876805</v>
       </c>
       <c r="I18">
-        <v>24.03243200569439</v>
+        <v>23.13907261654626</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6.830036031151149</v>
+        <v>9.350962573605361</v>
       </c>
       <c r="O18">
-        <v>23.41084739587976</v>
+        <v>21.92252576625884</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1016,34 +1016,34 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>9.058176940618774</v>
+        <v>10.59035043845753</v>
       </c>
       <c r="D19">
-        <v>2.246475882408116</v>
+        <v>3.844609164859149</v>
       </c>
       <c r="E19">
-        <v>11.35808372489933</v>
+        <v>12.92113138313663</v>
       </c>
       <c r="F19">
-        <v>30.40212041019605</v>
+        <v>25.45540136201317</v>
       </c>
       <c r="G19">
-        <v>45.26260173745014</v>
+        <v>32.42859811871104</v>
       </c>
       <c r="H19">
-        <v>11.8174017883585</v>
+        <v>13.86548577975244</v>
       </c>
       <c r="I19">
-        <v>23.94075443900168</v>
+        <v>23.1205861446342</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.81408421606024</v>
+        <v>9.350059299437795</v>
       </c>
       <c r="O19">
-        <v>23.31978344347842</v>
+        <v>21.90314919282136</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1051,34 +1051,34 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>9.185870949685123</v>
+        <v>10.60719517618118</v>
       </c>
       <c r="D20">
-        <v>2.24625745831517</v>
+        <v>3.84540137398612</v>
       </c>
       <c r="E20">
-        <v>11.52560103559776</v>
+        <v>12.94427021076845</v>
       </c>
       <c r="F20">
-        <v>31.01011611637989</v>
+        <v>25.60267527220191</v>
       </c>
       <c r="G20">
-        <v>46.17825575820358</v>
+        <v>32.72043249904236</v>
       </c>
       <c r="H20">
-        <v>11.98420289812467</v>
+        <v>13.88744659862062</v>
       </c>
       <c r="I20">
-        <v>24.35198321208863</v>
+        <v>23.20404694578683</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.885951015286188</v>
+        <v>9.354236766142611</v>
       </c>
       <c r="O20">
-        <v>23.7281845476652</v>
+        <v>21.99057973980204</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1086,34 +1086,34 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>9.611135192184623</v>
+        <v>10.66620871351043</v>
       </c>
       <c r="D21">
-        <v>2.245025219292473</v>
+        <v>3.847964038868485</v>
       </c>
       <c r="E21">
-        <v>12.08319550331882</v>
+        <v>13.02507889982562</v>
       </c>
       <c r="F21">
-        <v>33.01792572141098</v>
+        <v>26.09920070939484</v>
       </c>
       <c r="G21">
-        <v>49.17447104156217</v>
+        <v>33.69245701387616</v>
       </c>
       <c r="H21">
-        <v>12.54022932589045</v>
+        <v>13.96439118574072</v>
       </c>
       <c r="I21">
-        <v>25.71302369007265</v>
+        <v>23.4889571129236</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>7.128755090237444</v>
+        <v>9.370236750873936</v>
       </c>
       <c r="O21">
-        <v>25.22504854869848</v>
+        <v>22.28818097415049</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1121,34 +1121,34 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>9.886060157593183</v>
+        <v>10.70653849415418</v>
       </c>
       <c r="D22">
-        <v>2.243817101421276</v>
+        <v>3.849564794649631</v>
       </c>
       <c r="E22">
-        <v>12.4434941668874</v>
+        <v>13.08011881599116</v>
       </c>
       <c r="F22">
-        <v>34.29011909918511</v>
+        <v>26.42440601491083</v>
       </c>
       <c r="G22">
-        <v>51.07383266854978</v>
+        <v>34.32020302926982</v>
       </c>
       <c r="H22">
-        <v>12.9001167632039</v>
+        <v>14.01698051735751</v>
       </c>
       <c r="I22">
-        <v>26.71089247950316</v>
+        <v>23.67823623155889</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>7.288348929257456</v>
+        <v>9.382148777358454</v>
       </c>
       <c r="O22">
-        <v>26.21067566948352</v>
+        <v>22.48524919821001</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1156,34 +1156,34 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>9.73961354950967</v>
+        <v>10.6848552943018</v>
       </c>
       <c r="D23">
-        <v>2.244500839733025</v>
+        <v>3.848717238062493</v>
       </c>
       <c r="E23">
-        <v>12.25158391544144</v>
+        <v>13.05054305136375</v>
       </c>
       <c r="F23">
-        <v>33.61474200691307</v>
+        <v>26.25081040271164</v>
       </c>
       <c r="G23">
-        <v>50.06542005592443</v>
+        <v>33.98592584568908</v>
       </c>
       <c r="H23">
-        <v>12.70837060357793</v>
+        <v>13.98870551089903</v>
       </c>
       <c r="I23">
-        <v>26.18116719943934</v>
+        <v>23.57695091822163</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>7.203092587890867</v>
+        <v>9.375658567017284</v>
       </c>
       <c r="O23">
-        <v>25.68749079202575</v>
+        <v>22.37985435241051</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1191,34 +1191,34 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>9.178872188279485</v>
+        <v>10.60626094819072</v>
       </c>
       <c r="D24">
-        <v>2.24627125112872</v>
+        <v>3.845358241561818</v>
       </c>
       <c r="E24">
-        <v>11.51642082721182</v>
+        <v>12.94298786166992</v>
       </c>
       <c r="F24">
-        <v>30.97661451886923</v>
+        <v>25.5945797982112</v>
       </c>
       <c r="G24">
-        <v>46.12827648484901</v>
+        <v>32.70443516708632</v>
       </c>
       <c r="H24">
-        <v>11.97505883981478</v>
+        <v>13.88622859925332</v>
       </c>
       <c r="I24">
-        <v>24.3294883236424</v>
+        <v>23.19944607785136</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.881999111659424</v>
+        <v>9.353999948776787</v>
       </c>
       <c r="O24">
-        <v>23.70584926699476</v>
+        <v>21.98576324384745</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1226,34 +1226,34 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>8.562566436452283</v>
+        <v>10.52930253894838</v>
       </c>
       <c r="D25">
-        <v>2.246649452261568</v>
+        <v>3.841418667015757</v>
       </c>
       <c r="E25">
-        <v>10.70736639180175</v>
+        <v>12.83689861319032</v>
       </c>
       <c r="F25">
-        <v>28.16106991023282</v>
+        <v>24.89346810154541</v>
       </c>
       <c r="G25">
-        <v>41.62745828042513</v>
+        <v>31.29776813676036</v>
       </c>
       <c r="H25">
-        <v>11.17070305040831</v>
+        <v>13.78590716680931</v>
       </c>
       <c r="I25">
-        <v>22.32666809239114</v>
+        <v>22.80721247484069</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.540213775946135</v>
+        <v>9.336939626364597</v>
       </c>
       <c r="O25">
-        <v>21.71474064736673</v>
+        <v>21.57362437670841</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_125/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_125/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>10.47960307264752</v>
+        <v>8.101113683792443</v>
       </c>
       <c r="D2">
-        <v>3.83824738459685</v>
+        <v>2.245811244287579</v>
       </c>
       <c r="E2">
-        <v>12.76766712996633</v>
+        <v>10.10043975315593</v>
       </c>
       <c r="F2">
-        <v>24.38713471282597</v>
+        <v>26.00516188310494</v>
       </c>
       <c r="G2">
-        <v>30.25043463407877</v>
+        <v>38.17289520709105</v>
       </c>
       <c r="H2">
-        <v>13.72114037120475</v>
+        <v>10.56960350018308</v>
       </c>
       <c r="I2">
-        <v>22.53310231119853</v>
+        <v>20.79219677404598</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>9.329841130967061</v>
+        <v>6.293414370763759</v>
       </c>
       <c r="O2">
-        <v>21.2833099749091</v>
+        <v>20.18515636868946</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -456,34 +456,34 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>10.45037202107952</v>
+        <v>7.785127429569235</v>
       </c>
       <c r="D3">
-        <v>3.835930178954499</v>
+        <v>2.244637996577946</v>
       </c>
       <c r="E3">
-        <v>12.72644113586963</v>
+        <v>9.684023366103757</v>
       </c>
       <c r="F3">
-        <v>24.05226021884549</v>
+        <v>24.47814165683461</v>
       </c>
       <c r="G3">
-        <v>29.53861713261317</v>
+        <v>35.70289374062883</v>
       </c>
       <c r="H3">
-        <v>13.68306165960474</v>
+        <v>10.15860329878672</v>
       </c>
       <c r="I3">
-        <v>22.35737378144347</v>
+        <v>19.71867318833958</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>9.328454093328642</v>
+        <v>6.129783097305841</v>
       </c>
       <c r="O3">
-        <v>21.09573507956767</v>
+        <v>19.11230077721732</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -491,34 +491,34 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>10.43465040749228</v>
+        <v>7.590141953259952</v>
       </c>
       <c r="D4">
-        <v>3.834424825415421</v>
+        <v>2.24364718505873</v>
       </c>
       <c r="E4">
-        <v>12.70398083294631</v>
+        <v>9.426644215785005</v>
       </c>
       <c r="F4">
-        <v>23.85142729026402</v>
+        <v>23.50981335745256</v>
       </c>
       <c r="G4">
-        <v>29.10242667723949</v>
+        <v>34.12411338352226</v>
       </c>
       <c r="H4">
-        <v>13.66258951676806</v>
+        <v>9.905255642808626</v>
       </c>
       <c r="I4">
-        <v>22.25470344097577</v>
+        <v>19.04473516603604</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>9.32929501348675</v>
+        <v>6.031329006355121</v>
       </c>
       <c r="O4">
-        <v>20.98539993083244</v>
+        <v>18.43736112132935</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -526,34 +526,34 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>10.42880791258606</v>
+        <v>7.510549623673664</v>
       </c>
       <c r="D5">
-        <v>3.833790664373361</v>
+        <v>2.24317938519044</v>
       </c>
       <c r="E5">
-        <v>12.69555162918325</v>
+        <v>9.321475596011604</v>
       </c>
       <c r="F5">
-        <v>23.77089341594906</v>
+        <v>23.10784581760017</v>
       </c>
       <c r="G5">
-        <v>28.92518720548114</v>
+        <v>33.46543063599557</v>
       </c>
       <c r="H5">
-        <v>13.65498394736394</v>
+        <v>9.801902727079392</v>
       </c>
       <c r="I5">
-        <v>22.21421899936945</v>
+        <v>18.76671526530284</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>9.330063813335169</v>
+        <v>5.991751545304803</v>
       </c>
       <c r="O5">
-        <v>20.94169908310523</v>
+        <v>18.15856240202556</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -561,34 +561,34 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>10.42787196222097</v>
+        <v>7.497328686126037</v>
       </c>
       <c r="D6">
-        <v>3.833684112561664</v>
+        <v>2.243097952217358</v>
       </c>
       <c r="E6">
-        <v>12.69419583309895</v>
+        <v>9.303999721703539</v>
       </c>
       <c r="F6">
-        <v>23.75760278919316</v>
+        <v>23.04066688932331</v>
       </c>
       <c r="G6">
-        <v>28.89579634248949</v>
+        <v>33.3551434910373</v>
       </c>
       <c r="H6">
-        <v>13.6537657119091</v>
+        <v>9.78473860870116</v>
       </c>
       <c r="I6">
-        <v>22.20757951812481</v>
+        <v>18.72035683988411</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>9.330217219497595</v>
+        <v>5.985213630874124</v>
       </c>
       <c r="O6">
-        <v>20.93452006577358</v>
+        <v>18.11205183641883</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -596,34 +596,34 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>10.43456932385896</v>
+        <v>7.589068933805806</v>
       </c>
       <c r="D7">
-        <v>3.83441635672833</v>
+        <v>2.243641130319819</v>
       </c>
       <c r="E7">
-        <v>12.70386421649433</v>
+        <v>9.425226826822074</v>
       </c>
       <c r="F7">
-        <v>23.85033575306452</v>
+        <v>23.50442156237957</v>
       </c>
       <c r="G7">
-        <v>29.10003389911549</v>
+        <v>34.1152916642796</v>
       </c>
       <c r="H7">
-        <v>13.66248395444741</v>
+        <v>9.903862049020567</v>
       </c>
       <c r="I7">
-        <v>22.25415191823619</v>
+        <v>19.04099890925529</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>9.32930365592838</v>
+        <v>6.030793002204313</v>
       </c>
       <c r="O7">
-        <v>20.98480539963697</v>
+        <v>18.43361588164321</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -631,34 +631,34 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>10.46906490508412</v>
+        <v>7.992424752204203</v>
       </c>
       <c r="D8">
-        <v>3.837465579923371</v>
+        <v>2.245465282365581</v>
       </c>
       <c r="E8">
-        <v>12.75286433203479</v>
+        <v>9.957291961669641</v>
       </c>
       <c r="F8">
-        <v>24.27074128271625</v>
+        <v>25.48521349833847</v>
       </c>
       <c r="G8">
-        <v>30.00499325919384</v>
+        <v>37.33430335804182</v>
       </c>
       <c r="H8">
-        <v>13.70741082898344</v>
+        <v>10.42817453050244</v>
       </c>
       <c r="I8">
-        <v>22.47145089682965</v>
+        <v>20.42529708102656</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>9.329011947853191</v>
+        <v>6.236597384327691</v>
       </c>
       <c r="O8">
-        <v>21.21765833673252</v>
+        <v>19.81877033987972</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -666,34 +666,34 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>10.55415950457158</v>
+        <v>8.771533886645418</v>
       </c>
       <c r="D9">
-        <v>3.842787855798174</v>
+        <v>2.246708306307049</v>
       </c>
       <c r="E9">
-        <v>12.87127721233442</v>
+        <v>10.98185106375542</v>
       </c>
       <c r="F9">
-        <v>25.12838031552726</v>
+        <v>29.11415208108972</v>
       </c>
       <c r="G9">
-        <v>31.77406878043188</v>
+        <v>43.17569024655511</v>
       </c>
       <c r="H9">
-        <v>13.81830698560665</v>
+        <v>11.44323869183569</v>
       </c>
       <c r="I9">
-        <v>22.937175097115</v>
+        <v>23.01098300238599</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.341840360411121</v>
+        <v>6.654661833553376</v>
       </c>
       <c r="O9">
-        <v>21.71054551788778</v>
+        <v>22.39565093741648</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -701,34 +701,34 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>10.62699022019643</v>
+        <v>9.332050753575166</v>
       </c>
       <c r="D10">
-        <v>3.846294917704664</v>
+        <v>2.24592125789995</v>
       </c>
       <c r="E10">
-        <v>12.97141709788208</v>
+        <v>11.71731410985073</v>
       </c>
       <c r="F10">
-        <v>25.77235484085015</v>
+        <v>31.70628742490291</v>
       </c>
       <c r="G10">
-        <v>33.05458916311124</v>
+        <v>47.21694472667144</v>
       </c>
       <c r="H10">
-        <v>13.91325508847762</v>
+        <v>12.17524025347635</v>
       </c>
       <c r="I10">
-        <v>23.30081928520842</v>
+        <v>24.82070756893635</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.359385048239247</v>
+        <v>6.968827106517553</v>
       </c>
       <c r="O10">
-        <v>22.09180496302789</v>
+        <v>24.20829094792113</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -736,34 +736,34 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>10.66228121176307</v>
+        <v>9.58375049505127</v>
       </c>
       <c r="D11">
-        <v>3.847802294688922</v>
+        <v>2.245127872899786</v>
       </c>
       <c r="E11">
-        <v>13.01971159451615</v>
+        <v>12.04730067289442</v>
       </c>
       <c r="F11">
-        <v>26.06697412088439</v>
+        <v>32.89016983650721</v>
       </c>
       <c r="G11">
-        <v>33.6298858845403</v>
+        <v>48.98377226916912</v>
       </c>
       <c r="H11">
-        <v>13.9592700100001</v>
+        <v>12.50440009757288</v>
       </c>
       <c r="I11">
-        <v>23.47031043443012</v>
+        <v>25.62311188420284</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.369114970458863</v>
+        <v>7.112967175583215</v>
       </c>
       <c r="O11">
-        <v>22.26874091314613</v>
+        <v>25.12604195287344</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -771,34 +771,34 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>10.67594794756043</v>
+        <v>9.678549126236291</v>
       </c>
       <c r="D12">
-        <v>3.848360398001666</v>
+        <v>2.244758864128761</v>
       </c>
       <c r="E12">
-        <v>13.03838266102604</v>
+        <v>12.17155383809191</v>
       </c>
       <c r="F12">
-        <v>26.17866826080345</v>
+        <v>33.33160037361306</v>
       </c>
       <c r="G12">
-        <v>33.84646349813307</v>
+        <v>49.64271687518204</v>
       </c>
       <c r="H12">
-        <v>13.97709061067314</v>
+        <v>12.62844566247434</v>
       </c>
       <c r="I12">
-        <v>23.53502473213244</v>
+        <v>25.9590751547258</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.373049282135547</v>
+        <v>7.167706373004671</v>
       </c>
       <c r="O12">
-        <v>22.33618803746316</v>
+        <v>25.4681130751124</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -806,34 +806,34 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>10.67299123339563</v>
+        <v>9.658155968037315</v>
       </c>
       <c r="D13">
-        <v>3.848240766474034</v>
+        <v>2.244841486250292</v>
       </c>
       <c r="E13">
-        <v>13.03434466247179</v>
+        <v>12.14482563088346</v>
       </c>
       <c r="F13">
-        <v>26.15460898611309</v>
+        <v>33.23683424559353</v>
       </c>
       <c r="G13">
-        <v>33.79987991998833</v>
+        <v>49.50124787243028</v>
       </c>
       <c r="H13">
-        <v>13.97323519235058</v>
+        <v>12.60175751164116</v>
       </c>
       <c r="I13">
-        <v>23.52106455949447</v>
+        <v>25.88474019021415</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.372190876534312</v>
+        <v>7.155910596970187</v>
       </c>
       <c r="O13">
-        <v>22.3216432121414</v>
+        <v>25.39468277392161</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -841,34 +841,34 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>10.663399560055</v>
+        <v>9.591560145376429</v>
       </c>
       <c r="D14">
-        <v>3.847848465165526</v>
+        <v>2.245098924349069</v>
       </c>
       <c r="E14">
-        <v>13.02124006446527</v>
+        <v>12.05753740085018</v>
       </c>
       <c r="F14">
-        <v>26.07616132903326</v>
+        <v>32.92662371247238</v>
       </c>
       <c r="G14">
-        <v>33.64773069960466</v>
+        <v>49.03818556232739</v>
       </c>
       <c r="H14">
-        <v>13.96072825039585</v>
+        <v>12.51461764556217</v>
       </c>
       <c r="I14">
-        <v>23.47562417072504</v>
+        <v>25.64792020709454</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.369433652557957</v>
+        <v>7.117467557519019</v>
       </c>
       <c r="O14">
-        <v>22.27428123662491</v>
+        <v>25.15429306854296</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -876,34 +876,34 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>10.65756357761039</v>
+        <v>9.550700228556391</v>
       </c>
       <c r="D15">
-        <v>3.847606512817661</v>
+        <v>2.245247498057409</v>
       </c>
       <c r="E15">
-        <v>13.01326265647562</v>
+        <v>12.00397786809496</v>
       </c>
       <c r="F15">
-        <v>26.02812328403852</v>
+        <v>32.73571874512681</v>
       </c>
       <c r="G15">
-        <v>33.55436215727691</v>
+        <v>48.75323539175471</v>
       </c>
       <c r="H15">
-        <v>13.95311861412588</v>
+        <v>12.46116265700453</v>
       </c>
       <c r="I15">
-        <v>23.44785826721343</v>
+        <v>25.51806677768498</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.367777251676774</v>
+        <v>7.093939982456724</v>
       </c>
       <c r="O15">
-        <v>22.24532692856566</v>
+        <v>25.00633998410037</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -911,34 +911,34 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>10.62472667925059</v>
+        <v>9.315531588236567</v>
       </c>
       <c r="D16">
-        <v>3.846194631687089</v>
+        <v>2.245963846794922</v>
       </c>
       <c r="E16">
-        <v>12.96831515068649</v>
+        <v>11.69565211919148</v>
       </c>
       <c r="F16">
-        <v>25.75312477416255</v>
+        <v>31.62794824102301</v>
       </c>
       <c r="G16">
-        <v>33.0168262926481</v>
+        <v>47.10005225342409</v>
       </c>
       <c r="H16">
-        <v>13.9103038504742</v>
+        <v>12.15364716998924</v>
       </c>
       <c r="I16">
-        <v>23.28981995863522</v>
+        <v>24.76784330173225</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.35878422663583</v>
+        <v>6.959430047768878</v>
       </c>
       <c r="O16">
-        <v>22.0803072598365</v>
+        <v>24.14754281043231</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -946,34 +946,34 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>10.60513012757232</v>
+        <v>9.170388019715038</v>
       </c>
       <c r="D17">
-        <v>3.845305910785877</v>
+        <v>2.246287688521629</v>
       </c>
       <c r="E17">
-        <v>12.94143551839098</v>
+        <v>11.50529204130525</v>
       </c>
       <c r="F17">
-        <v>25.58476974013746</v>
+        <v>30.93598107561932</v>
       </c>
       <c r="G17">
-        <v>32.68504285504711</v>
+        <v>46.06765822297432</v>
       </c>
       <c r="H17">
-        <v>13.88475429673296</v>
+        <v>11.96397435185708</v>
       </c>
       <c r="I17">
-        <v>23.19387278324225</v>
+        <v>24.30221242708327</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.353714075845884</v>
+        <v>6.877210455576374</v>
       </c>
       <c r="O17">
-        <v>21.97992825560868</v>
+        <v>23.6787661499593</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -981,34 +981,34 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>10.59406251079553</v>
+        <v>9.086598039027445</v>
       </c>
       <c r="D18">
-        <v>3.84478646184106</v>
+        <v>2.246433358498122</v>
       </c>
       <c r="E18">
-        <v>12.92623370685781</v>
+        <v>11.39537257704112</v>
       </c>
       <c r="F18">
-        <v>25.48810033995068</v>
+        <v>30.5333935394824</v>
       </c>
       <c r="G18">
-        <v>32.4935434718583</v>
+        <v>45.46710309626152</v>
       </c>
       <c r="H18">
-        <v>13.87032518876805</v>
+        <v>11.85452073624115</v>
       </c>
       <c r="I18">
-        <v>23.13907261654626</v>
+        <v>24.03243200569439</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.350962573605361</v>
+        <v>6.830036031151186</v>
       </c>
       <c r="O18">
-        <v>21.92252576625884</v>
+        <v>23.41084739587975</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1016,34 +1016,34 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>10.59035043845753</v>
+        <v>9.05817694061879</v>
       </c>
       <c r="D19">
-        <v>3.844609164859149</v>
+        <v>2.246475882408116</v>
       </c>
       <c r="E19">
-        <v>12.92113138313663</v>
+        <v>11.35808372489935</v>
       </c>
       <c r="F19">
-        <v>25.45540136201317</v>
+        <v>30.40212041019607</v>
       </c>
       <c r="G19">
-        <v>32.42859811871104</v>
+        <v>45.26260173745006</v>
       </c>
       <c r="H19">
-        <v>13.86548577975244</v>
+        <v>11.81740178835852</v>
       </c>
       <c r="I19">
-        <v>23.1205861446342</v>
+        <v>23.9407544390017</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.350059299437795</v>
+        <v>6.814084216060269</v>
       </c>
       <c r="O19">
-        <v>21.90314919282136</v>
+        <v>23.31978344347842</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1051,34 +1051,34 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>10.60719517618118</v>
+        <v>9.185870949685116</v>
       </c>
       <c r="D20">
-        <v>3.84540137398612</v>
+        <v>2.246257458315295</v>
       </c>
       <c r="E20">
-        <v>12.94427021076845</v>
+        <v>11.52560103559778</v>
       </c>
       <c r="F20">
-        <v>25.60267527220191</v>
+        <v>31.01011611637994</v>
       </c>
       <c r="G20">
-        <v>32.72043249904236</v>
+        <v>46.17825575820363</v>
       </c>
       <c r="H20">
-        <v>13.88744659862062</v>
+        <v>11.98420289812467</v>
       </c>
       <c r="I20">
-        <v>23.20404694578683</v>
+        <v>24.35198321208863</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.354236766142611</v>
+        <v>6.885951015286185</v>
       </c>
       <c r="O20">
-        <v>21.99057973980204</v>
+        <v>23.7281845476652</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1086,34 +1086,34 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>10.66620871351043</v>
+        <v>9.611135192184689</v>
       </c>
       <c r="D21">
-        <v>3.847964038868485</v>
+        <v>2.2450252192926</v>
       </c>
       <c r="E21">
-        <v>13.02507889982562</v>
+        <v>12.08319550331879</v>
       </c>
       <c r="F21">
-        <v>26.09920070939484</v>
+        <v>33.01792572141103</v>
       </c>
       <c r="G21">
-        <v>33.69245701387616</v>
+        <v>49.17447104156219</v>
       </c>
       <c r="H21">
-        <v>13.96439118574072</v>
+        <v>12.54022932589046</v>
       </c>
       <c r="I21">
-        <v>23.4889571129236</v>
+        <v>25.71302369007266</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.370236750873936</v>
+        <v>7.128755090237414</v>
       </c>
       <c r="O21">
-        <v>22.28818097415049</v>
+        <v>25.22504854869849</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1121,34 +1121,34 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>10.70653849415418</v>
+        <v>9.886060157593219</v>
       </c>
       <c r="D22">
-        <v>3.849564794649631</v>
+        <v>2.243817101421476</v>
       </c>
       <c r="E22">
-        <v>13.08011881599116</v>
+        <v>12.44349416688744</v>
       </c>
       <c r="F22">
-        <v>26.42440601491083</v>
+        <v>34.29011909918516</v>
       </c>
       <c r="G22">
-        <v>34.32020302926982</v>
+        <v>51.07383266854977</v>
       </c>
       <c r="H22">
-        <v>14.01698051735751</v>
+        <v>12.90011676320388</v>
       </c>
       <c r="I22">
-        <v>23.67823623155889</v>
+        <v>26.71089247950319</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.382148777358454</v>
+        <v>7.288348929257485</v>
       </c>
       <c r="O22">
-        <v>22.48524919821001</v>
+        <v>26.21067566948354</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1156,34 +1156,34 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>10.6848552943018</v>
+        <v>9.739613549509741</v>
       </c>
       <c r="D23">
-        <v>3.848717238062493</v>
+        <v>2.244500839732905</v>
       </c>
       <c r="E23">
-        <v>13.05054305136375</v>
+        <v>12.25158391544148</v>
       </c>
       <c r="F23">
-        <v>26.25081040271164</v>
+        <v>33.61474200691308</v>
       </c>
       <c r="G23">
-        <v>33.98592584568908</v>
+        <v>50.06542005592447</v>
       </c>
       <c r="H23">
-        <v>13.98870551089903</v>
+        <v>12.70837060357793</v>
       </c>
       <c r="I23">
-        <v>23.57695091822163</v>
+        <v>26.18116719943933</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.375658567017284</v>
+        <v>7.203092587890908</v>
       </c>
       <c r="O23">
-        <v>22.37985435241051</v>
+        <v>25.68749079202576</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1191,34 +1191,34 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>10.60626094819072</v>
+        <v>9.178872188279501</v>
       </c>
       <c r="D24">
-        <v>3.845358241561818</v>
+        <v>2.24627125112872</v>
       </c>
       <c r="E24">
-        <v>12.94298786166992</v>
+        <v>11.51642082721184</v>
       </c>
       <c r="F24">
-        <v>25.5945797982112</v>
+        <v>30.97661451886929</v>
       </c>
       <c r="G24">
-        <v>32.70443516708632</v>
+        <v>46.12827648484907</v>
       </c>
       <c r="H24">
-        <v>13.88622859925332</v>
+        <v>11.97505883981476</v>
       </c>
       <c r="I24">
-        <v>23.19944607785136</v>
+        <v>24.32948832364243</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.353999948776787</v>
+        <v>6.88199911165942</v>
       </c>
       <c r="O24">
-        <v>21.98576324384745</v>
+        <v>23.70584926699479</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1226,34 +1226,34 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>10.52930253894838</v>
+        <v>8.562566436452251</v>
       </c>
       <c r="D25">
-        <v>3.841418667015757</v>
+        <v>2.246649452261571</v>
       </c>
       <c r="E25">
-        <v>12.83689861319032</v>
+        <v>10.70736639180171</v>
       </c>
       <c r="F25">
-        <v>24.89346810154541</v>
+        <v>28.16106991023281</v>
       </c>
       <c r="G25">
-        <v>31.29776813676036</v>
+        <v>41.62745828042505</v>
       </c>
       <c r="H25">
-        <v>13.78590716680931</v>
+        <v>11.17070305040831</v>
       </c>
       <c r="I25">
-        <v>22.80721247484069</v>
+        <v>22.32666809239115</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>9.336939626364597</v>
+        <v>6.540213775946095</v>
       </c>
       <c r="O25">
-        <v>21.57362437670841</v>
+        <v>21.71474064736675</v>
       </c>
     </row>
   </sheetData>
